--- a/Sorption Experiments/RaAGW_7_7_2017/RaAGW.xlsx
+++ b/Sorption Experiments/RaAGW_7_7_2017/RaAGW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaAGW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaAGW_7_7_2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="132">
   <si>
     <t>Parameters</t>
   </si>
@@ -800,11 +800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219119016"/>
-        <c:axId val="219121760"/>
+        <c:axId val="197000840"/>
+        <c:axId val="196994176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219119016"/>
+        <c:axId val="197000840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219121760"/>
+        <c:crossAx val="196994176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219121760"/>
+        <c:axId val="196994176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219119016"/>
+        <c:crossAx val="197000840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,11 +1100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219118232"/>
-        <c:axId val="219122936"/>
+        <c:axId val="196994568"/>
+        <c:axId val="196994960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219118232"/>
+        <c:axId val="196994568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,12 +1132,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219122936"/>
+        <c:crossAx val="196994960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219122936"/>
+        <c:axId val="196994960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219118232"/>
+        <c:crossAx val="196994568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1268,6 +1268,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1291,6 +1292,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1562,7 +1564,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,7 +1664,7 @@
       </c>
       <c r="B8">
         <f>'Count-&gt;Actual Activity'!F2/10</f>
-        <v>0.64450125902868771</v>
+        <v>0.64004194118429558</v>
       </c>
       <c r="C8">
         <f>'Count-&gt;Actual Activity'!G2</f>
@@ -1681,7 +1683,7 @@
       </c>
       <c r="B9">
         <f>'Count-&gt;Actual Activity'!F10/10</f>
-        <v>0.63727121330987957</v>
+        <v>0.63186999960120249</v>
       </c>
       <c r="C9">
         <f>'Count-&gt;Actual Activity'!G10</f>
@@ -1715,10 +1717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B23"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2349,6 +2351,1506 @@
       </c>
       <c r="F31">
         <v>191.92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32">
+        <v>2430.6999999999998</v>
+      </c>
+      <c r="D32">
+        <v>1.28</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33">
+        <v>2308</v>
+      </c>
+      <c r="D33">
+        <v>1.32</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34">
+        <v>1201.7</v>
+      </c>
+      <c r="D34">
+        <v>1.82</v>
+      </c>
+      <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="F34">
+        <v>64.239999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35">
+        <v>2231.4</v>
+      </c>
+      <c r="D35">
+        <v>1.34</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36">
+        <v>2300.8000000000002</v>
+      </c>
+      <c r="D36">
+        <v>1.32</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>85.49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37">
+        <v>1692.8</v>
+      </c>
+      <c r="D37">
+        <v>1.54</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38">
+        <v>1725.1</v>
+      </c>
+      <c r="D38">
+        <v>1.52</v>
+      </c>
+      <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="F38">
+        <v>106.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39">
+        <v>1693.9</v>
+      </c>
+      <c r="D39">
+        <v>1.54</v>
+      </c>
+      <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="F39">
+        <v>117.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40">
+        <v>2363.9</v>
+      </c>
+      <c r="D40">
+        <v>1.3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B41" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41">
+        <v>1890.2</v>
+      </c>
+      <c r="D41">
+        <v>1.45</v>
+      </c>
+      <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="F41">
+        <v>138.72999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>1942.3</v>
+      </c>
+      <c r="D42">
+        <v>1.44</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>149.36000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43">
+        <v>1916.8</v>
+      </c>
+      <c r="D43">
+        <v>1.44</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>159.97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44">
+        <v>2093</v>
+      </c>
+      <c r="D44">
+        <v>1.38</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>170.61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45">
+        <v>2118.1</v>
+      </c>
+      <c r="D45">
+        <v>1.37</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>181.24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46">
+        <v>2120.1999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1.37</v>
+      </c>
+      <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="F46">
+        <v>191.88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47">
+        <v>2449.4</v>
+      </c>
+      <c r="D47">
+        <v>1.28</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>42.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48">
+        <v>2326.6999999999998</v>
+      </c>
+      <c r="D48">
+        <v>1.31</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>53.56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49">
+        <v>1202.2</v>
+      </c>
+      <c r="D49">
+        <v>1.82</v>
+      </c>
+      <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="F49">
+        <v>64.180000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50">
+        <v>2256</v>
+      </c>
+      <c r="D50">
+        <v>1.33</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>74.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51">
+        <v>2330.3000000000002</v>
+      </c>
+      <c r="D51">
+        <v>1.31</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52">
+        <v>1715.7</v>
+      </c>
+      <c r="D52">
+        <v>1.53</v>
+      </c>
+      <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="F52">
+        <v>96.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>1705</v>
+      </c>
+      <c r="D53">
+        <v>1.53</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>106.68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54">
+        <v>1700.7</v>
+      </c>
+      <c r="D54">
+        <v>1.53</v>
+      </c>
+      <c r="E54">
+        <v>0.01</v>
+      </c>
+      <c r="F54">
+        <v>117.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>2407.1</v>
+      </c>
+      <c r="D55">
+        <v>1.29</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>127.95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56">
+        <v>1907.9</v>
+      </c>
+      <c r="D56">
+        <v>1.45</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56">
+        <v>138.69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57">
+        <v>1962.1</v>
+      </c>
+      <c r="D57">
+        <v>1.43</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>149.32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58">
+        <v>1957.3</v>
+      </c>
+      <c r="D58">
+        <v>1.43</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <v>159.94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59">
+        <v>2130.9</v>
+      </c>
+      <c r="D59">
+        <v>1.37</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>170.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60">
+        <v>2153.8000000000002</v>
+      </c>
+      <c r="D60">
+        <v>1.38</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>181.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>42923.320833333331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61">
+        <v>2171.5</v>
+      </c>
+      <c r="D61">
+        <v>1.36</v>
+      </c>
+      <c r="E61">
+        <v>0.01</v>
+      </c>
+      <c r="F61">
+        <v>191.85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62">
+        <v>2420.1999999999998</v>
+      </c>
+      <c r="D62">
+        <v>1.29</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63">
+        <v>2303.6</v>
+      </c>
+      <c r="D63">
+        <v>1.32</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>53.51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64">
+        <v>1219.9000000000001</v>
+      </c>
+      <c r="D64">
+        <v>1.81</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>64.150000000000006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B65" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65">
+        <v>2257.9</v>
+      </c>
+      <c r="D65">
+        <v>1.33</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66">
+        <v>2303.5</v>
+      </c>
+      <c r="D66">
+        <v>1.32</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67">
+        <v>1709.1</v>
+      </c>
+      <c r="D67">
+        <v>1.53</v>
+      </c>
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+      <c r="F67">
+        <v>96.01</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68">
+        <v>1716.8</v>
+      </c>
+      <c r="D68">
+        <v>1.53</v>
+      </c>
+      <c r="E68">
+        <v>0.01</v>
+      </c>
+      <c r="F68">
+        <v>106.64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69">
+        <v>1708.2</v>
+      </c>
+      <c r="D69">
+        <v>1.53</v>
+      </c>
+      <c r="E69">
+        <v>0.01</v>
+      </c>
+      <c r="F69">
+        <v>117.26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70">
+        <v>2416.5</v>
+      </c>
+      <c r="D70">
+        <v>1.29</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71">
+        <v>1915.8</v>
+      </c>
+      <c r="D71">
+        <v>1.44</v>
+      </c>
+      <c r="E71">
+        <v>0.01</v>
+      </c>
+      <c r="F71">
+        <v>138.63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B72" t="s">
+        <v>112</v>
+      </c>
+      <c r="C72">
+        <v>1914.5</v>
+      </c>
+      <c r="D72">
+        <v>1.45</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>149.26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73">
+        <v>1939.7</v>
+      </c>
+      <c r="D73">
+        <v>1.44</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>159.88999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B74" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74">
+        <v>2135</v>
+      </c>
+      <c r="D74">
+        <v>1.37</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>170.53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B75" t="s">
+        <v>115</v>
+      </c>
+      <c r="C75">
+        <v>2106</v>
+      </c>
+      <c r="D75">
+        <v>1.38</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>181.16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>42927.490277777775</v>
+      </c>
+      <c r="B76" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76">
+        <v>2144.8000000000002</v>
+      </c>
+      <c r="D76">
+        <v>1.37</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>191.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B77" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77">
+        <v>2371.6</v>
+      </c>
+      <c r="D77">
+        <v>1.3</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>42.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78">
+        <v>2252.1</v>
+      </c>
+      <c r="D78">
+        <v>1.33</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>53.51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79">
+        <v>1173.3</v>
+      </c>
+      <c r="D79">
+        <v>1.85</v>
+      </c>
+      <c r="E79">
+        <v>0.01</v>
+      </c>
+      <c r="F79">
+        <v>64.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80">
+        <v>2265</v>
+      </c>
+      <c r="D80">
+        <v>1.33</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>74.760000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81">
+        <v>2266</v>
+      </c>
+      <c r="D81">
+        <v>1.33</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82">
+        <v>1676.7</v>
+      </c>
+      <c r="D82">
+        <v>1.54</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>96.01</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B83" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83">
+        <v>1706.8</v>
+      </c>
+      <c r="D83">
+        <v>1.53</v>
+      </c>
+      <c r="E83">
+        <v>0.01</v>
+      </c>
+      <c r="F83">
+        <v>106.63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84">
+        <v>1669.4</v>
+      </c>
+      <c r="D84">
+        <v>1.55</v>
+      </c>
+      <c r="E84">
+        <v>0.01</v>
+      </c>
+      <c r="F84">
+        <v>117.26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85">
+        <v>2390.1</v>
+      </c>
+      <c r="D85">
+        <v>1.29</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>127.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86">
+        <v>1871.6</v>
+      </c>
+      <c r="D86">
+        <v>1.46</v>
+      </c>
+      <c r="E86">
+        <v>0.01</v>
+      </c>
+      <c r="F86">
+        <v>138.63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87">
+        <v>1888.8</v>
+      </c>
+      <c r="D87">
+        <v>1.46</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>149.24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B88" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88">
+        <v>1928.8</v>
+      </c>
+      <c r="D88">
+        <v>1.44</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>159.88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89">
+        <v>2091.6999999999998</v>
+      </c>
+      <c r="D89">
+        <v>1.38</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>170.51</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90">
+        <v>2119.3000000000002</v>
+      </c>
+      <c r="D90">
+        <v>1.37</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>181.14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>42928.348611111112</v>
+      </c>
+      <c r="B91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91">
+        <v>2127</v>
+      </c>
+      <c r="D91">
+        <v>1.37</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>191.78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B92" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92">
+        <v>2430.6999999999998</v>
+      </c>
+      <c r="D92">
+        <v>1.28</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93">
+        <v>2308.6999999999998</v>
+      </c>
+      <c r="D93">
+        <v>1.32</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>53.61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94">
+        <v>1201.7</v>
+      </c>
+      <c r="D94">
+        <v>1.82</v>
+      </c>
+      <c r="E94">
+        <v>0.01</v>
+      </c>
+      <c r="F94">
+        <v>64.239999999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B95" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>2231.4</v>
+      </c>
+      <c r="D95">
+        <v>1.34</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>74.86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>2300.8000000000002</v>
+      </c>
+      <c r="D96">
+        <v>1.32</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>85.49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>1692.8</v>
+      </c>
+      <c r="D97">
+        <v>1.54</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>96.11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B98" t="s">
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>1725.1</v>
+      </c>
+      <c r="D98">
+        <v>1.52</v>
+      </c>
+      <c r="E98">
+        <v>0.01</v>
+      </c>
+      <c r="F98">
+        <v>106.74</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B99" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>1693.9</v>
+      </c>
+      <c r="D99">
+        <v>1.54</v>
+      </c>
+      <c r="E99">
+        <v>0.01</v>
+      </c>
+      <c r="F99">
+        <v>117.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100">
+        <v>2363.9</v>
+      </c>
+      <c r="D100">
+        <v>1.3</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>1890.2</v>
+      </c>
+      <c r="D101">
+        <v>1.45</v>
+      </c>
+      <c r="E101">
+        <v>0.01</v>
+      </c>
+      <c r="F101">
+        <v>138.72999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C102">
+        <v>1942.3</v>
+      </c>
+      <c r="D102">
+        <v>1.44</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>149.36000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B103" t="s">
+        <v>113</v>
+      </c>
+      <c r="C103">
+        <v>1916.8</v>
+      </c>
+      <c r="D103">
+        <v>1.44</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>159.97</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B104" t="s">
+        <v>114</v>
+      </c>
+      <c r="C104">
+        <v>2093</v>
+      </c>
+      <c r="D104">
+        <v>1.38</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>170.61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105">
+        <v>2118.1</v>
+      </c>
+      <c r="D105">
+        <v>1.37</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>181.24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="16">
+        <v>42926.624305555553</v>
+      </c>
+      <c r="B106" t="s">
+        <v>116</v>
+      </c>
+      <c r="C106">
+        <v>2120.1999999999998</v>
+      </c>
+      <c r="D106">
+        <v>1.37</v>
+      </c>
+      <c r="E106">
+        <v>0.01</v>
+      </c>
+      <c r="F106">
+        <v>191.88</v>
       </c>
     </row>
   </sheetData>
@@ -5739,7 +7241,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C2" sqref="C2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,17 +7286,17 @@
         <v>85</v>
       </c>
       <c r="C2">
-        <v>40.734166666666667</v>
+        <v>40.454047619047607</v>
       </c>
       <c r="D2">
-        <v>0.51936062500000002</v>
+        <v>0.51896763945578228</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="1">
         <f>C2*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.4450125902868773</v>
+        <v>6.4004194118429556</v>
       </c>
       <c r="G2" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5809,17 +7311,17 @@
         <v>85</v>
       </c>
       <c r="C3">
-        <v>38.316666666666663</v>
+        <v>38.326428571428558</v>
       </c>
       <c r="D3">
-        <v>0.50386416666666667</v>
+        <v>0.50536133673469386</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="1">
         <f>C3*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.0601618998233446</v>
+        <v>6.0617159332412784</v>
       </c>
       <c r="G3" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5834,17 +7336,17 @@
         <v>85</v>
       </c>
       <c r="C4">
-        <v>19.97</v>
+        <v>19.988571428571429</v>
       </c>
       <c r="D4">
-        <v>0.36445250000000001</v>
+        <v>0.36464865306122451</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="1">
         <f>C4*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>3.1394887522035133</v>
+        <v>3.1424452060230004</v>
       </c>
       <c r="G4" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5859,17 +7361,17 @@
         <v>85</v>
       </c>
       <c r="C5">
-        <v>38.515000000000001</v>
+        <v>37.770238095238092</v>
       </c>
       <c r="D5">
-        <v>0.50839800000000002</v>
+        <v>0.5023441666666667</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1">
         <f>C5*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.0917353104852969</v>
+        <v>5.9731739316730703</v>
       </c>
       <c r="G5" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5884,17 +7386,17 @@
         <v>85</v>
       </c>
       <c r="C6">
-        <v>38.903333333333343</v>
+        <v>38.499523809523808</v>
       </c>
       <c r="D6">
-        <v>0.50963366666666676</v>
+        <v>0.50709372789115648</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1">
         <f>C6*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.1535555179158417</v>
+        <v>6.0892715989690576</v>
       </c>
       <c r="G6" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5909,17 +7411,17 @@
         <v>85</v>
       </c>
       <c r="C7">
-        <v>28.66</v>
+        <v>28.39595238095238</v>
       </c>
       <c r="D7">
-        <v>0.43706499999999998</v>
+        <v>0.43526938435374152</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1">
         <f>C7*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>4.5228817201985905</v>
+        <v>4.4808470114061478</v>
       </c>
       <c r="G7" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5934,17 +7436,17 @@
         <v>85</v>
       </c>
       <c r="C8">
-        <v>28.797499999999999</v>
+        <v>28.653571428571428</v>
       </c>
       <c r="D8">
-        <v>0.437722</v>
+        <v>0.43676229591836752</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="1">
         <f>C8*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>4.5447708494390184</v>
+        <v>4.5218583323379988</v>
       </c>
       <c r="G8" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5959,17 +7461,17 @@
         <v>85</v>
       </c>
       <c r="C9">
-        <v>28.374166666666671</v>
+        <v>28.26428571428572</v>
       </c>
       <c r="D9">
-        <v>0.43412475000000011</v>
+        <v>0.43405867346938781</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="1">
         <f>C9*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>4.4773788636563667</v>
+        <v>4.4598865118910727</v>
       </c>
       <c r="G9" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -5984,17 +7486,17 @@
         <v>85</v>
       </c>
       <c r="C10">
-        <v>40.28</v>
+        <v>39.940714285714293</v>
       </c>
       <c r="D10">
-        <v>0.517598</v>
+        <v>0.51580579591836739</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="1">
         <f>C10*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>6.3727121330987959</v>
+        <v>6.3186999960120254</v>
       </c>
       <c r="G10" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6009,17 +7511,17 @@
         <v>85</v>
       </c>
       <c r="C11">
-        <v>32.064166666666672</v>
+        <v>31.722380952380949</v>
       </c>
       <c r="D11">
-        <v>0.4633272083333333</v>
+        <v>0.45952134693877539</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1">
         <f>C11*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.0648034956358643</v>
+        <v>5.010393374381084</v>
       </c>
       <c r="G11" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6034,17 +7536,17 @@
         <v>85</v>
       </c>
       <c r="C12">
-        <v>32.868333333333332</v>
+        <v>32.367142857142859</v>
       </c>
       <c r="D12">
-        <v>0.46837374999999992</v>
+        <v>0.46562446938775509</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1">
         <f>C12*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.192821736345036</v>
+        <v>5.1130353864729985</v>
       </c>
       <c r="G12" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6059,17 +7561,17 @@
         <v>85</v>
       </c>
       <c r="C13">
-        <v>32.57</v>
+        <v>32.304285714285712</v>
       </c>
       <c r="D13">
-        <v>0.46575100000000003</v>
+        <v>0.4637972448979592</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1">
         <f>C13*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.1453289589627733</v>
+        <v>5.1030289273916587</v>
       </c>
       <c r="G13" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6084,17 +7586,17 @@
         <v>85</v>
       </c>
       <c r="C14">
-        <v>35.564166666666672</v>
+        <v>35.265000000000001</v>
       </c>
       <c r="D14">
-        <v>0.48722908333333331</v>
+        <v>0.48464185714285718</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="1">
         <f>C14*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.6219813308467694</v>
+        <v>5.5743558920751699</v>
       </c>
       <c r="G14" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6109,17 +7611,17 @@
         <v>85</v>
       </c>
       <c r="C15">
-        <v>35.988333333333337</v>
+        <v>35.556904761904768</v>
       </c>
       <c r="D15">
-        <v>0.48944133333333339</v>
+        <v>0.48712959523809529</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="1">
         <f>C15*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.689505978018758</v>
+        <v>5.6208252815968427</v>
       </c>
       <c r="G15" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6134,17 +7636,17 @@
         <v>85</v>
       </c>
       <c r="C16">
-        <v>36.299999999999997</v>
+        <v>35.808809523809529</v>
       </c>
       <c r="D16">
-        <v>0.491865</v>
+        <v>0.48853447278911571</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1">
         <f>C16*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>5.7391213376303947</v>
+        <v>5.660926924430389</v>
       </c>
       <c r="G16" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6161,10 +7663,10 @@
   <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:J13"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6283,7 +7785,7 @@
       </c>
       <c r="J2" s="1">
         <f>VLOOKUP(A2,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.0601618998233446</v>
+        <v>6.0617159332412784</v>
       </c>
       <c r="K2" s="1">
         <f>VLOOKUP(A2,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6296,28 +7798,28 @@
         <v>0.01</v>
       </c>
       <c r="N2">
-        <f>J2/L2</f>
-        <v>0.60601618998233442</v>
+        <f t="shared" ref="N2:N13" si="0">J2/L2</f>
+        <v>0.60617159332412784</v>
       </c>
       <c r="O2">
-        <f>SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
-        <v>1.5756725743922836E-2</v>
+        <f t="shared" ref="O2:O13" si="1">SQRT((M2/L2)^2+(K2/J2)^2)*N2</f>
+        <v>1.5756731721624034E-2</v>
       </c>
       <c r="P2">
         <f>B2*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q2">
         <f>SQRT((C2/B2)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P2</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R2" t="e">
-        <f>(P2-N2*H2)/F2</f>
+        <f t="shared" ref="R2:R13" si="2">(P2-N2*H2)/F2</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T2">
-        <f>(P2-N2*H2)/P2</f>
-        <v>5.4409104485337416E-2</v>
+        <f t="shared" ref="T2:T13" si="3">(P2-N2*H2)/P2</f>
+        <v>4.6834023824365106E-2</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -6349,7 +7851,7 @@
       </c>
       <c r="J3" s="1">
         <f>VLOOKUP(A3,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.0917353104852969</v>
+        <v>5.9731739316730703</v>
       </c>
       <c r="K3" s="1">
         <f>VLOOKUP(A3,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6362,28 +7864,28 @@
         <v>0.01</v>
       </c>
       <c r="N3">
-        <f>J3/L3</f>
-        <v>0.60917353104852967</v>
+        <f t="shared" si="0"/>
+        <v>0.59731739316730703</v>
       </c>
       <c r="O3">
-        <f>SQRT((M3/L3)^2+(K3/J3)^2)*N3</f>
-        <v>1.5756847493633049E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5756393578952647E-2</v>
       </c>
       <c r="P3">
         <f>B3*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q3">
         <f>SQRT((C3/B3)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P3</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R3" t="e">
-        <f>(P3-N3*H3)/F3</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T3">
-        <f>(P3-N3*H3)/P3</f>
-        <v>4.9482581043256112E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0756686035323956E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -6415,7 +7917,7 @@
       </c>
       <c r="J4" s="1">
         <f>VLOOKUP(A4,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.1535555179158417</v>
+        <v>6.0892715989690576</v>
       </c>
       <c r="K4" s="1">
         <f>VLOOKUP(A4,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6428,28 +7930,28 @@
         <v>0.01</v>
       </c>
       <c r="N4">
-        <f>J4/L4</f>
-        <v>0.61535555179158419</v>
+        <f t="shared" si="0"/>
+        <v>0.60892715989690571</v>
       </c>
       <c r="O4">
-        <f>SQRT((M4/L4)^2+(K4/J4)^2)*N4</f>
-        <v>1.5757087706863876E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5756837970631671E-2</v>
       </c>
       <c r="P4">
         <f>B4*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q4">
         <f>SQRT((C4/B4)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P4</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R4" t="e">
-        <f>(P4-N4*H4)/F4</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T4">
-        <f>(P4-N4*H4)/P4</f>
-        <v>3.9836530942374153E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2501072014704239E-2</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -6482,7 +7984,7 @@
       </c>
       <c r="J5" s="1">
         <f>VLOOKUP(A5,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>4.5228817201985905</v>
+        <v>4.4808470114061478</v>
       </c>
       <c r="K5" s="1">
         <f>VLOOKUP(A5,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6495,28 +7997,28 @@
         <v>0.01</v>
       </c>
       <c r="N5">
-        <f>J5/L5</f>
-        <v>0.45228817201985905</v>
+        <f t="shared" si="0"/>
+        <v>0.44808470114061477</v>
       </c>
       <c r="O5">
-        <f>SQRT((M5/L5)^2+(K5/J5)^2)*N5</f>
-        <v>1.5751562307822962E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5751442170356216E-2</v>
       </c>
       <c r="P5">
         <f>B5*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q5">
         <f>SQRT((C5/B5)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P5</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R5">
-        <f>(P5-N5*H5)/F5</f>
-        <v>624.49690115703493</v>
+        <f t="shared" si="2"/>
+        <v>622.09029553686844</v>
       </c>
       <c r="T5">
-        <f>(P5-N5*H5)/P5</f>
-        <v>0.29427697695103611</v>
+        <f t="shared" si="3"/>
+        <v>0.29541552874503263</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -6549,7 +8051,7 @@
       </c>
       <c r="J6" s="1">
         <f>VLOOKUP(A6,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>4.5447708494390184</v>
+        <v>4.5218583323379988</v>
       </c>
       <c r="K6" s="1">
         <f>VLOOKUP(A6,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6562,28 +8064,28 @@
         <v>0.01</v>
       </c>
       <c r="N6">
-        <f>J6/L6</f>
-        <v>0.45447708494390182</v>
+        <f t="shared" si="0"/>
+        <v>0.45218583323379991</v>
       </c>
       <c r="O6">
-        <f>SQRT((M6/L6)^2+(K6/J6)^2)*N6</f>
-        <v>1.5751625311929529E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5751559369613453E-2</v>
       </c>
       <c r="P6">
         <f>B6*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q6">
         <f>SQRT((C6/B6)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P6</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R6">
-        <f>(P6-N6*H6)/F6</f>
-        <v>613.1879974519137</v>
+        <f t="shared" si="2"/>
+        <v>604.50703012812232</v>
       </c>
       <c r="T6">
-        <f>(P6-N6*H6)/P6</f>
-        <v>0.29086153002690429</v>
+        <f t="shared" si="3"/>
+        <v>0.28896676140245647</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -6616,7 +8118,7 @@
       </c>
       <c r="J7" s="1">
         <f>VLOOKUP(A7,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>4.4773788636563667</v>
+        <v>4.4598865118910727</v>
       </c>
       <c r="K7" s="1">
         <f>VLOOKUP(A7,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6629,28 +8131,28 @@
         <v>0.01</v>
       </c>
       <c r="N7">
-        <f>J7/L7</f>
-        <v>0.44773788636563666</v>
+        <f t="shared" si="0"/>
+        <v>0.44598865118910724</v>
       </c>
       <c r="O7">
-        <f>SQRT((M7/L7)^2+(K7/J7)^2)*N7</f>
-        <v>1.5751432308255878E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5751382682916107E-2</v>
       </c>
       <c r="P7">
         <f>B7*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q7">
         <f>SQRT((C7/B7)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P7</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R7">
-        <f>(P7-N7*H7)/F7</f>
-        <v>629.14771923012029</v>
+        <f t="shared" si="2"/>
+        <v>618.7860560379213</v>
       </c>
       <c r="T7">
-        <f>(P7-N7*H7)/P7</f>
-        <v>0.3013769666175648</v>
+        <f t="shared" si="3"/>
+        <v>0.29871143294137675</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6686,7 +8188,7 @@
       </c>
       <c r="J8" s="1">
         <f>VLOOKUP(A8,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.4450125902868773</v>
+        <v>6.4004194118429556</v>
       </c>
       <c r="K8" s="1">
         <f>VLOOKUP(A8,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6699,28 +8201,28 @@
         <v>0.01</v>
       </c>
       <c r="N8">
-        <f>J8/L8</f>
-        <v>0.64450125902868771</v>
+        <f t="shared" si="0"/>
+        <v>0.64004194118429558</v>
       </c>
       <c r="O8">
-        <f>SQRT((M8/L8)^2+(K8/J8)^2)*N8</f>
-        <v>1.575825283524698E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5758071082247187E-2</v>
       </c>
       <c r="P8">
         <f>B8*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q8">
         <f>SQRT((C8/B8)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P8</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R8">
-        <f>(P8-N8*H8)/F8</f>
-        <v>-50.725127815259157</v>
+        <f t="shared" si="2"/>
+        <v>-57.333355475591716</v>
       </c>
       <c r="T8">
-        <f>(P8-N8*H8)/P8</f>
-        <v>-5.6406623443997729E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.4249271675570156E-3</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -6756,7 +8258,7 @@
       </c>
       <c r="J9" s="1">
         <f>VLOOKUP(A9,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.4450125902868773</v>
+        <v>6.4004194118429556</v>
       </c>
       <c r="K9" s="1">
         <f>VLOOKUP(A9,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6769,28 +8271,28 @@
         <v>0.01</v>
       </c>
       <c r="N9">
-        <f>J9/L9</f>
-        <v>0.64450125902868771</v>
+        <f t="shared" si="0"/>
+        <v>0.64004194118429558</v>
       </c>
       <c r="O9">
-        <f>SQRT((M9/L9)^2+(K9/J9)^2)*N9</f>
-        <v>1.575825283524698E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5758071082247187E-2</v>
       </c>
       <c r="P9">
         <f>B9*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q9">
         <f>SQRT((C9/B9)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P9</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R9">
-        <f>(P9-N9*H9)/F9</f>
-        <v>-50.725127815259157</v>
+        <f t="shared" si="2"/>
+        <v>-57.333355475591716</v>
       </c>
       <c r="T9">
-        <f>(P9-N9*H9)/P9</f>
-        <v>-5.6406623443997729E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.4249271675570156E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -6826,7 +8328,7 @@
       </c>
       <c r="J10" s="1">
         <f>VLOOKUP(A10,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.4450125902868773</v>
+        <v>6.4004194118429556</v>
       </c>
       <c r="K10" s="1">
         <f>VLOOKUP(A10,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6839,28 +8341,28 @@
         <v>0.01</v>
       </c>
       <c r="N10">
-        <f>J10/L10</f>
-        <v>0.64450125902868771</v>
+        <f t="shared" si="0"/>
+        <v>0.64004194118429558</v>
       </c>
       <c r="O10">
-        <f>SQRT((M10/L10)^2+(K10/J10)^2)*N10</f>
-        <v>1.575825283524698E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5758071082247187E-2</v>
       </c>
       <c r="P10">
         <f>B10*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q10">
         <f>SQRT((C10/B10)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P10</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R10">
-        <f>(P10-N10*H10)/F10</f>
-        <v>-50.725127815259157</v>
+        <f t="shared" si="2"/>
+        <v>-57.333355475591716</v>
       </c>
       <c r="T10">
-        <f>(P10-N10*H10)/P10</f>
-        <v>-5.6406623443997729E-3</v>
+        <f t="shared" si="3"/>
+        <v>-6.4249271675570156E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -6892,7 +8394,7 @@
       </c>
       <c r="J11" s="1">
         <f>VLOOKUP(A11,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.1535555179158417</v>
+        <v>6.0892715989690576</v>
       </c>
       <c r="K11" s="1">
         <f>VLOOKUP(A11,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6905,28 +8407,28 @@
         <v>0.01</v>
       </c>
       <c r="N11">
-        <f>J11/L11</f>
-        <v>0.61535555179158419</v>
+        <f t="shared" si="0"/>
+        <v>0.60892715989690571</v>
       </c>
       <c r="O11">
-        <f>SQRT((M11/L11)^2+(K11/J11)^2)*N11</f>
-        <v>1.5757087706863876E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5756837970631671E-2</v>
       </c>
       <c r="P11">
         <f>B11*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q11">
         <f>SQRT((C11/B11)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P11</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R11">
-        <f>(P11-N11*H11)/F11</f>
-        <v>85.673437509058303</v>
+        <f t="shared" si="2"/>
+        <v>90.700706361890425</v>
       </c>
       <c r="T11">
-        <f>(P11-N11*H11)/P11</f>
-        <v>3.9836530942374153E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2501072014704239E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -6958,7 +8460,7 @@
       </c>
       <c r="J12" s="1">
         <f>VLOOKUP(A12,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.1535555179158417</v>
+        <v>6.0892715989690576</v>
       </c>
       <c r="K12" s="1">
         <f>VLOOKUP(A12,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -6971,28 +8473,28 @@
         <v>0.01</v>
       </c>
       <c r="N12">
-        <f>J12/L12</f>
-        <v>0.61535555179158419</v>
+        <f t="shared" si="0"/>
+        <v>0.60892715989690571</v>
       </c>
       <c r="O12">
-        <f>SQRT((M12/L12)^2+(K12/J12)^2)*N12</f>
-        <v>1.5757087706863876E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5756837970631671E-2</v>
       </c>
       <c r="P12">
         <f>B12*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q12">
         <f>SQRT((C12/B12)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P12</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R12">
-        <f>(P12-N12*H12)/F12</f>
-        <v>87.135441562113897</v>
+        <f t="shared" si="2"/>
+        <v>92.248499985813467</v>
       </c>
       <c r="T12">
-        <f>(P12-N12*H12)/P12</f>
-        <v>3.9836530942374153E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2501072014704239E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -7024,7 +8526,7 @@
       </c>
       <c r="J13" s="1">
         <f>VLOOKUP(A13,'Count-&gt;Actual Activity'!$A$2:$G$16,6)</f>
-        <v>6.1535555179158417</v>
+        <v>6.0892715989690576</v>
       </c>
       <c r="K13" s="1">
         <f>VLOOKUP(A13,'Count-&gt;Actual Activity'!$A$2:$G$16,7)</f>
@@ -7037,28 +8539,28 @@
         <v>0.01</v>
       </c>
       <c r="N13">
-        <f>J13/L13</f>
-        <v>0.61535555179158419</v>
+        <f t="shared" si="0"/>
+        <v>0.60892715989690571</v>
       </c>
       <c r="O13">
-        <f>SQRT((M13/L13)^2+(K13/J13)^2)*N13</f>
-        <v>1.5757087706863876E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5756837970631671E-2</v>
       </c>
       <c r="P13">
         <f>B13*AVERAGE(Parameters!$B$8:$B$9)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="Q13">
         <f>SQRT((C13/B13)^2+(_xlfn.STDEV.S(Parameters!$B$8:$B$9)/AVERAGE(Parameters!$B$8:$B$9))^2)*'Bottle Results'!P13</f>
-        <v>0.51380590747249255</v>
+        <v>0.58007892752935808</v>
       </c>
       <c r="R13">
-        <f>(P13-N13*H13)/F13</f>
-        <v>85.10228125899792</v>
+        <f t="shared" si="2"/>
+        <v>90.096034986144488</v>
       </c>
       <c r="T13">
-        <f>(P13-N13*H13)/P13</f>
-        <v>3.9836530942374153E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.2501072014704239E-2</v>
       </c>
     </row>
   </sheetData>
@@ -7076,7 +8578,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7128,11 +8630,11 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!N2:N4)</f>
-        <v>0.61018175760748272</v>
+        <v>0.6041387154627802</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!N2:N4)</f>
-        <v>4.7506115760659771E-3</v>
+        <v>6.0659801498432345E-3</v>
       </c>
       <c r="D2" t="e">
         <f>AVERAGE('Bottle Results'!R2:R4)</f>
@@ -7144,15 +8646,15 @@
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!P2:P4)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="G2">
         <f>AVERAGE('Bottle Results'!T2:T4)</f>
-        <v>4.7909405490322556E-2</v>
+        <v>5.0030593958131107E-2</v>
       </c>
       <c r="H2">
         <f>_xlfn.STDEV.S('Bottle Results'!T2:T4)</f>
-        <v>7.4125660810901925E-3</v>
+        <v>9.5383649690355538E-3</v>
       </c>
       <c r="I2">
         <f>AVERAGE('Bottle Results'!D2:D4)</f>
@@ -7173,31 +8675,31 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!N5:N7)</f>
-        <v>0.45150104777646582</v>
+        <v>0.44875306185450725</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!N5:N7)</f>
-        <v>3.4378587522214728E-3</v>
+        <v>3.1521890578884203E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!R5:R7)</f>
-        <v>622.27753927968968</v>
+        <v>615.12779390097069</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!R5:R7)</f>
-        <v>8.2080664694190073</v>
+        <v>9.345050401447109</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!P5:P7)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!T5:T7)</f>
-        <v>0.2955051578651684</v>
+        <v>0.29436457436295527</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!T5:T7)</f>
-        <v>5.3642262201951934E-3</v>
+        <v>4.9566152448285118E-3</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -7218,7 +8720,7 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!N8:N10)</f>
-        <v>0.64450125902868771</v>
+        <v>0.64004194118429558</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!N8:N10)</f>
@@ -7226,23 +8728,23 @@
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!R8:R10)</f>
-        <v>-50.725127815259157</v>
+        <v>-57.333355475591723</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!R8:R10)</f>
-        <v>0</v>
+        <v>8.7023357152673167E-15</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!P8:P10)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!T8:T10)</f>
-        <v>-5.6406623443997729E-3</v>
+        <v>-6.4249271675570164E-3</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!T8:T10)</f>
-        <v>0</v>
+        <v>1.0622968402425924E-18</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7263,7 +8765,7 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!N11:N13)</f>
-        <v>0.61535555179158419</v>
+        <v>0.60892715989690571</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!N11:N13)</f>
@@ -7271,19 +8773,19 @@
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!R11:R13)</f>
-        <v>85.970386776723373</v>
+        <v>91.015080444616117</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!R11:R13)</f>
-        <v>1.0486035262275153</v>
+        <v>1.1101349880159681</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!P11:P13)</f>
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!T11:T13)</f>
-        <v>3.9836530942374153E-2</v>
+        <v>4.2501072014704239E-2</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!T11:T13)</f>

--- a/Sorption Experiments/RaAGW_7_7_2017/RaAGW.xlsx
+++ b/Sorption Experiments/RaAGW_7_7_2017/RaAGW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -800,11 +800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="197000840"/>
-        <c:axId val="196994176"/>
+        <c:axId val="225906320"/>
+        <c:axId val="225907496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="197000840"/>
+        <c:axId val="225906320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,12 +832,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196994176"/>
+        <c:crossAx val="225907496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196994176"/>
+        <c:axId val="225907496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197000840"/>
+        <c:crossAx val="225906320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1100,11 +1100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196994568"/>
-        <c:axId val="196994960"/>
+        <c:axId val="225906712"/>
+        <c:axId val="230436712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196994568"/>
+        <c:axId val="225906712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1132,12 +1132,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196994960"/>
+        <c:crossAx val="230436712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196994960"/>
+        <c:axId val="230436712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196994568"/>
+        <c:crossAx val="225906712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1563,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8577,7 +8577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
